--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.5.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.5.xlsx
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01495</v>
+        <v>0.01333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00748</v>
+        <v>0.00667</v>
       </c>
       <c r="F2" t="n">
-        <v>1.41211</v>
+        <v>1.34113</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>52.05</v>
+        <v>49.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03384</v>
+        <v>0.04155</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01692</v>
+        <v>0.02078</v>
       </c>
       <c r="F3" t="n">
-        <v>2.20833</v>
+        <v>2.65682</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -524,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>31.45</v>
+        <v>27.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05132</v>
+        <v>0.06429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01283</v>
+        <v>0.01607</v>
       </c>
       <c r="F4" t="n">
-        <v>2.34903</v>
+        <v>2.5546</v>
       </c>
       <c r="G4" t="n">
         <v>0.15</v>
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>39.35</v>
+        <v>37.7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02883</v>
+        <v>0.0349</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00721</v>
+        <v>0.00873</v>
       </c>
       <c r="F5" t="n">
-        <v>1.87719</v>
+        <v>2.03793</v>
       </c>
       <c r="G5" t="n">
         <v>0.85</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>22.25</v>
+        <v>22.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03936</v>
+        <v>0.03905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00656</v>
+        <v>0.00651</v>
       </c>
       <c r="F6" t="n">
-        <v>1.76189</v>
+        <v>1.79519</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.2</v>
+        <v>21.95</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08764</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01461</v>
+        <v>0.01393</v>
       </c>
       <c r="F7" t="n">
-        <v>2.55385</v>
+        <v>2.8793</v>
       </c>
       <c r="G7" t="n">
         <v>0.15</v>
@@ -616,16 +616,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>14.45</v>
+        <v>14.65</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09742000000000001</v>
+        <v>0.10446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01218</v>
+        <v>0.01306</v>
       </c>
       <c r="F8" t="n">
-        <v>2.64659</v>
+        <v>2.69742</v>
       </c>
       <c r="G8" t="n">
         <v>0.15</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6</v>
+        <v>17.95</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04553</v>
+        <v>0.0536</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00569</v>
+        <v>0.0067</v>
       </c>
       <c r="F9" t="n">
-        <v>1.65228</v>
+        <v>1.95145</v>
       </c>
       <c r="G9" t="n">
         <v>0.85</v>
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05283</v>
+        <v>0.04352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00528</v>
+        <v>0.00435</v>
       </c>
       <c r="F10" t="n">
-        <v>1.59246</v>
+        <v>1.40021</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>10.25</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12815</v>
+        <v>0.1274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01282</v>
+        <v>0.01274</v>
       </c>
       <c r="F11" t="n">
-        <v>2.43209</v>
+        <v>2.40263</v>
       </c>
       <c r="G11" t="n">
         <v>0.15</v>
